--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_64ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_64ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2127,28 +2127,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1082.589339768381</v>
+        <v>1165.905213405028</v>
       </c>
       <c r="AB2" t="n">
-        <v>1481.246495142005</v>
+        <v>1595.242949088597</v>
       </c>
       <c r="AC2" t="n">
-        <v>1339.878408588165</v>
+        <v>1442.995200965121</v>
       </c>
       <c r="AD2" t="n">
-        <v>1082589.339768381</v>
+        <v>1165905.213405028</v>
       </c>
       <c r="AE2" t="n">
-        <v>1481246.495142005</v>
+        <v>1595242.949088597</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.293399663508621e-06</v>
+        <v>2.186556304739108e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.6640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1339878.408588164</v>
+        <v>1442995.200965121</v>
       </c>
     </row>
     <row r="3">
@@ -2233,28 +2233,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>508.4227210039134</v>
+        <v>570.7389445222551</v>
       </c>
       <c r="AB3" t="n">
-        <v>695.6463969049739</v>
+        <v>780.9102031205221</v>
       </c>
       <c r="AC3" t="n">
-        <v>629.2548811302125</v>
+        <v>706.3812293490524</v>
       </c>
       <c r="AD3" t="n">
-        <v>508422.7210039134</v>
+        <v>570738.9445222551</v>
       </c>
       <c r="AE3" t="n">
-        <v>695646.3969049739</v>
+        <v>780910.2031205221</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.03472597032003e-06</v>
+        <v>3.439805208198901e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.958767361111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>629254.8811302126</v>
+        <v>706381.2293490524</v>
       </c>
     </row>
     <row r="4">
@@ -2339,28 +2339,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>398.1779119058556</v>
+        <v>450.1649920741881</v>
       </c>
       <c r="AB4" t="n">
-        <v>544.8045854392938</v>
+        <v>615.9356020337156</v>
       </c>
       <c r="AC4" t="n">
-        <v>492.8092004430048</v>
+        <v>557.1515726466639</v>
       </c>
       <c r="AD4" t="n">
-        <v>398177.9119058556</v>
+        <v>450164.9920741881</v>
       </c>
       <c r="AE4" t="n">
-        <v>544804.5854392938</v>
+        <v>615935.6020337156</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.327055021532438e-06</v>
+        <v>3.934001973530465e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.706597222222221</v>
       </c>
       <c r="AH4" t="n">
-        <v>492809.2004430048</v>
+        <v>557151.5726466639</v>
       </c>
     </row>
     <row r="5">
@@ -2445,28 +2445,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>358.5048754379456</v>
+        <v>400.0775609102483</v>
       </c>
       <c r="AB5" t="n">
-        <v>490.5221866930569</v>
+        <v>547.4037690137033</v>
       </c>
       <c r="AC5" t="n">
-        <v>443.7074376472837</v>
+        <v>495.1603215850498</v>
       </c>
       <c r="AD5" t="n">
-        <v>358504.8754379456</v>
+        <v>400077.5609102483</v>
       </c>
       <c r="AE5" t="n">
-        <v>490522.186693057</v>
+        <v>547403.7690137032</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.444696223872787e-06</v>
+        <v>4.132880262996376e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.287760416666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>443707.4376472837</v>
+        <v>495160.3215850498</v>
       </c>
     </row>
     <row r="6">
@@ -2551,28 +2551,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>359.4999305883</v>
+        <v>401.0726160606028</v>
       </c>
       <c r="AB6" t="n">
-        <v>491.8836650485068</v>
+        <v>548.765247369153</v>
       </c>
       <c r="AC6" t="n">
-        <v>444.9389784193363</v>
+        <v>496.3918623571024</v>
       </c>
       <c r="AD6" t="n">
-        <v>359499.9305883</v>
+        <v>401072.6160606028</v>
       </c>
       <c r="AE6" t="n">
-        <v>491883.6650485068</v>
+        <v>548765.2473691531</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.445443152141615e-06</v>
+        <v>4.134142982294573e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.285590277777779</v>
       </c>
       <c r="AH6" t="n">
-        <v>444938.9784193363</v>
+        <v>496391.8623571024</v>
       </c>
     </row>
   </sheetData>
@@ -2848,28 +2848,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>751.956566876143</v>
+        <v>812.5000634478548</v>
       </c>
       <c r="AB2" t="n">
-        <v>1028.860148782368</v>
+        <v>1111.698431782344</v>
       </c>
       <c r="AC2" t="n">
-        <v>930.667180196866</v>
+        <v>1005.599493731584</v>
       </c>
       <c r="AD2" t="n">
-        <v>751956.566876143</v>
+        <v>812500.0634478548</v>
       </c>
       <c r="AE2" t="n">
-        <v>1028860.148782368</v>
+        <v>1111698.431782343</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.595984676197789e-06</v>
+        <v>2.763911910320149e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.13368055555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>930667.1801968659</v>
+        <v>1005599.493731584</v>
       </c>
     </row>
     <row r="3">
@@ -2954,28 +2954,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>404.8881925791093</v>
+        <v>445.2505534631009</v>
       </c>
       <c r="AB3" t="n">
-        <v>553.9858874931294</v>
+        <v>609.2114503162962</v>
       </c>
       <c r="AC3" t="n">
-        <v>501.1142519148609</v>
+        <v>551.0691645317487</v>
       </c>
       <c r="AD3" t="n">
-        <v>404888.1925791093</v>
+        <v>445250.5534631009</v>
       </c>
       <c r="AE3" t="n">
-        <v>553985.8874931295</v>
+        <v>609211.4503162962</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.292465280171539e-06</v>
+        <v>3.970070757168284e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.142795138888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>501114.2519148609</v>
+        <v>551069.1645317487</v>
       </c>
     </row>
     <row r="4">
@@ -3060,28 +3060,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>335.9202632017283</v>
+        <v>376.1972832311483</v>
       </c>
       <c r="AB4" t="n">
-        <v>459.6209238686923</v>
+        <v>514.7297195696613</v>
       </c>
       <c r="AC4" t="n">
-        <v>415.7553479766817</v>
+        <v>465.6046375616307</v>
       </c>
       <c r="AD4" t="n">
-        <v>335920.2632017283</v>
+        <v>376197.2832311483</v>
       </c>
       <c r="AE4" t="n">
-        <v>459620.9238686923</v>
+        <v>514729.7195696613</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.492494586901485e-06</v>
+        <v>4.316479711796282e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.409288194444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>415755.3479766817</v>
+        <v>465604.6375616307</v>
       </c>
     </row>
     <row r="5">
@@ -3166,28 +3166,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>337.2688124509978</v>
+        <v>377.5458324804177</v>
       </c>
       <c r="AB5" t="n">
-        <v>461.4660684453368</v>
+        <v>516.5748641463057</v>
       </c>
       <c r="AC5" t="n">
-        <v>417.4243945446078</v>
+        <v>467.2736841295569</v>
       </c>
       <c r="AD5" t="n">
-        <v>337268.8124509978</v>
+        <v>377545.8324804177</v>
       </c>
       <c r="AE5" t="n">
-        <v>461466.0684453368</v>
+        <v>516574.8641463057</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.49239800104599e-06</v>
+        <v>4.316312445280286e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.409288194444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>417424.3945446078</v>
+        <v>467273.6841295569</v>
       </c>
     </row>
   </sheetData>
@@ -3463,28 +3463,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>300.1633358662325</v>
+        <v>345.5695717292172</v>
       </c>
       <c r="AB2" t="n">
-        <v>410.6967184039661</v>
+        <v>472.8235334934505</v>
       </c>
       <c r="AC2" t="n">
-        <v>371.5004000159554</v>
+        <v>427.6979190688319</v>
       </c>
       <c r="AD2" t="n">
-        <v>300163.3358662325</v>
+        <v>345569.5717292172</v>
       </c>
       <c r="AE2" t="n">
-        <v>410696.7184039662</v>
+        <v>472823.5334934505</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.511498170156085e-06</v>
+        <v>4.752294986522188e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.312065972222221</v>
       </c>
       <c r="AH2" t="n">
-        <v>371500.4000159554</v>
+        <v>427697.919068832</v>
       </c>
     </row>
     <row r="3">
@@ -3569,28 +3569,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>302.0510596366143</v>
+        <v>347.4572954995989</v>
       </c>
       <c r="AB3" t="n">
-        <v>413.2795853470976</v>
+        <v>475.4064004365819</v>
       </c>
       <c r="AC3" t="n">
-        <v>373.8367617631109</v>
+        <v>430.0342808159875</v>
       </c>
       <c r="AD3" t="n">
-        <v>302051.0596366143</v>
+        <v>347457.2954995989</v>
       </c>
       <c r="AE3" t="n">
-        <v>413279.5853470975</v>
+        <v>475406.4004365819</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.511282618667422e-06</v>
+        <v>4.751887116721173e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.314236111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>373836.7617631109</v>
+        <v>430034.2808159875</v>
       </c>
     </row>
   </sheetData>
@@ -3866,28 +3866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>408.5725540926691</v>
+        <v>455.9704566415109</v>
       </c>
       <c r="AB2" t="n">
-        <v>559.0269934585403</v>
+        <v>623.8788947737472</v>
       </c>
       <c r="AC2" t="n">
-        <v>505.6742418021695</v>
+        <v>564.3367686760682</v>
       </c>
       <c r="AD2" t="n">
-        <v>408572.554092669</v>
+        <v>455970.4566415108</v>
       </c>
       <c r="AE2" t="n">
-        <v>559026.9934585403</v>
+        <v>623878.8947737472</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.201408404793491e-06</v>
+        <v>4.010488023147576e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.16493055555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>505674.2418021695</v>
+        <v>564336.7686760683</v>
       </c>
     </row>
     <row r="3">
@@ -3972,28 +3972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>304.632879735635</v>
+        <v>352.0306927759257</v>
       </c>
       <c r="AB3" t="n">
-        <v>416.8121455084417</v>
+        <v>481.6639243541003</v>
       </c>
       <c r="AC3" t="n">
-        <v>377.0321793406357</v>
+        <v>435.6945954333078</v>
       </c>
       <c r="AD3" t="n">
-        <v>304632.879735635</v>
+        <v>352030.6927759257</v>
       </c>
       <c r="AE3" t="n">
-        <v>416812.1455084417</v>
+        <v>481663.9243541004</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.538976252542724e-06</v>
+        <v>4.625463330523585e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.812934027777779</v>
       </c>
       <c r="AH3" t="n">
-        <v>377032.1793406357</v>
+        <v>435694.5954333078</v>
       </c>
     </row>
   </sheetData>
@@ -4269,28 +4269,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>295.645973492497</v>
+        <v>348.2911915857576</v>
       </c>
       <c r="AB2" t="n">
-        <v>404.5158639122585</v>
+        <v>476.5473738505632</v>
       </c>
       <c r="AC2" t="n">
-        <v>365.9094376020526</v>
+        <v>431.0663613287047</v>
       </c>
       <c r="AD2" t="n">
-        <v>295645.973492497</v>
+        <v>348291.1915857576</v>
       </c>
       <c r="AE2" t="n">
-        <v>404515.8639122585</v>
+        <v>476547.3738505632</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.429083618614232e-06</v>
+        <v>4.760221240605969e-06</v>
       </c>
       <c r="AG2" t="n">
         <v>10</v>
       </c>
       <c r="AH2" t="n">
-        <v>365909.4376020526</v>
+        <v>431066.3613287046</v>
       </c>
     </row>
   </sheetData>
@@ -4566,28 +4566,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>818.4636321080687</v>
+        <v>889.6935775381816</v>
       </c>
       <c r="AB2" t="n">
-        <v>1119.85804951733</v>
+        <v>1217.318003298219</v>
       </c>
       <c r="AC2" t="n">
-        <v>1012.980369002039</v>
+        <v>1101.138881579985</v>
       </c>
       <c r="AD2" t="n">
-        <v>818463.6321080688</v>
+        <v>889693.5775381816</v>
       </c>
       <c r="AE2" t="n">
-        <v>1119858.04951733</v>
+        <v>1217318.003298219</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.515506762268407e-06</v>
+        <v>2.607400904002664e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.70659722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1012980.369002039</v>
+        <v>1101138.881579985</v>
       </c>
     </row>
     <row r="3">
@@ -4672,28 +4672,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>429.1629513966575</v>
+        <v>479.8708916461458</v>
       </c>
       <c r="AB3" t="n">
-        <v>587.199683434076</v>
+        <v>656.5805243598645</v>
       </c>
       <c r="AC3" t="n">
-        <v>531.1581697870586</v>
+        <v>593.9174006315119</v>
       </c>
       <c r="AD3" t="n">
-        <v>429162.9513966575</v>
+        <v>479870.8916461458</v>
       </c>
       <c r="AE3" t="n">
-        <v>587199.6834340759</v>
+        <v>656580.5243598645</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.2258317596027e-06</v>
+        <v>3.829501712984144e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.331597222222221</v>
       </c>
       <c r="AH3" t="n">
-        <v>531158.1697870586</v>
+        <v>593917.4006315119</v>
       </c>
     </row>
     <row r="4">
@@ -4778,28 +4778,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>343.2757666166666</v>
+        <v>383.8933412307103</v>
       </c>
       <c r="AB4" t="n">
-        <v>469.6850481429192</v>
+        <v>525.2598056507784</v>
       </c>
       <c r="AC4" t="n">
-        <v>424.8589663552635</v>
+        <v>475.1297470062347</v>
       </c>
       <c r="AD4" t="n">
-        <v>343275.7666166666</v>
+        <v>383893.3412307103</v>
       </c>
       <c r="AE4" t="n">
-        <v>469685.0481429192</v>
+        <v>525259.8056507783</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.474890598447038e-06</v>
+        <v>4.258002764725124e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.394097222222221</v>
       </c>
       <c r="AH4" t="n">
-        <v>424858.9663552635</v>
+        <v>475129.7470062347</v>
       </c>
     </row>
     <row r="5">
@@ -4884,28 +4884,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>342.665742782993</v>
+        <v>383.2833173970368</v>
       </c>
       <c r="AB5" t="n">
-        <v>468.850386621335</v>
+        <v>524.4251441291942</v>
       </c>
       <c r="AC5" t="n">
-        <v>424.1039637578446</v>
+        <v>474.3747444088156</v>
       </c>
       <c r="AD5" t="n">
-        <v>342665.7427829931</v>
+        <v>383283.3173970368</v>
       </c>
       <c r="AE5" t="n">
-        <v>468850.386621335</v>
+        <v>524425.1441291942</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.480729410579822e-06</v>
+        <v>4.268048331272472e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.372395833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>424103.9637578445</v>
+        <v>474374.7444088156</v>
       </c>
     </row>
   </sheetData>
@@ -5181,28 +5181,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>305.3175951623585</v>
+        <v>356.9371072053145</v>
       </c>
       <c r="AB2" t="n">
-        <v>417.7490033627974</v>
+        <v>488.377097032118</v>
       </c>
       <c r="AC2" t="n">
-        <v>377.8796247962599</v>
+        <v>441.7670723329326</v>
       </c>
       <c r="AD2" t="n">
-        <v>305317.5951623585</v>
+        <v>356937.1072053145</v>
       </c>
       <c r="AE2" t="n">
-        <v>417749.0033627974</v>
+        <v>488377.097032118</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.342003422415046e-06</v>
+        <v>4.694921462791394e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.61414930555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>377879.6247962599</v>
+        <v>441767.0723329326</v>
       </c>
     </row>
   </sheetData>
@@ -5478,28 +5478,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>559.8826263426913</v>
+        <v>618.7681368085811</v>
       </c>
       <c r="AB2" t="n">
-        <v>766.0561096402873</v>
+        <v>846.6258629050925</v>
       </c>
       <c r="AC2" t="n">
-        <v>692.9447897027201</v>
+        <v>765.8250787962913</v>
       </c>
       <c r="AD2" t="n">
-        <v>559882.6263426914</v>
+        <v>618768.1368085811</v>
       </c>
       <c r="AE2" t="n">
-        <v>766056.1096402874</v>
+        <v>846625.8629050925</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.866870641793786e-06</v>
+        <v>3.306366627986649e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.56684027777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>692944.7897027201</v>
+        <v>765825.0787962914</v>
       </c>
     </row>
     <row r="3">
@@ -5584,28 +5584,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>323.1527940220926</v>
+        <v>372.1387118890957</v>
       </c>
       <c r="AB3" t="n">
-        <v>442.1519092761275</v>
+        <v>509.1766032079341</v>
       </c>
       <c r="AC3" t="n">
-        <v>399.9535516189153</v>
+        <v>460.5815028316191</v>
       </c>
       <c r="AD3" t="n">
-        <v>323152.7940220926</v>
+        <v>372138.7118890957</v>
       </c>
       <c r="AE3" t="n">
-        <v>442151.9092761275</v>
+        <v>509176.6032079341</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.510224517017498e-06</v>
+        <v>4.44579414663983e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.602430555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>399953.5516189153</v>
+        <v>460581.5028316191</v>
       </c>
     </row>
     <row r="4">
@@ -5690,28 +5690,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>320.8636490965142</v>
+        <v>360.2059969283457</v>
       </c>
       <c r="AB4" t="n">
-        <v>439.0198001990045</v>
+        <v>492.8497361644057</v>
       </c>
       <c r="AC4" t="n">
-        <v>397.1203666361702</v>
+        <v>445.8128490638233</v>
       </c>
       <c r="AD4" t="n">
-        <v>320863.6490965142</v>
+        <v>360205.9969283456</v>
       </c>
       <c r="AE4" t="n">
-        <v>439019.8001990045</v>
+        <v>492849.7361644057</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.523360280595151e-06</v>
+        <v>4.469058560013723e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.559027777777779</v>
       </c>
       <c r="AH4" t="n">
-        <v>397120.3666361702</v>
+        <v>445812.8490638232</v>
       </c>
     </row>
   </sheetData>
@@ -5987,28 +5987,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>680.8380507776764</v>
+        <v>750.7680517798843</v>
       </c>
       <c r="AB2" t="n">
-        <v>931.5526575289512</v>
+        <v>1027.233969994081</v>
       </c>
       <c r="AC2" t="n">
-        <v>842.6465793367538</v>
+        <v>929.1962016297773</v>
       </c>
       <c r="AD2" t="n">
-        <v>680838.0507776764</v>
+        <v>750768.0517798844</v>
       </c>
       <c r="AE2" t="n">
-        <v>931552.6575289512</v>
+        <v>1027233.969994081</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.679786288238121e-06</v>
+        <v>2.929400609085103e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.59548611111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>842646.5793367538</v>
+        <v>929196.2016297773</v>
       </c>
     </row>
     <row r="3">
@@ -6093,28 +6093,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>369.5362165114041</v>
+        <v>419.4618341259607</v>
       </c>
       <c r="AB3" t="n">
-        <v>505.6157542181836</v>
+        <v>573.92618680122</v>
       </c>
       <c r="AC3" t="n">
-        <v>457.3604962717674</v>
+        <v>519.1514770433729</v>
       </c>
       <c r="AD3" t="n">
-        <v>369536.2165114041</v>
+        <v>419461.8341259607</v>
       </c>
       <c r="AE3" t="n">
-        <v>505615.7542181836</v>
+        <v>573926.1868012199</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.3648442439591e-06</v>
+        <v>4.124081865146858e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.947482638888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>457360.4962717674</v>
+        <v>519151.4770433729</v>
       </c>
     </row>
     <row r="4">
@@ -6199,28 +6199,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>331.4537230112117</v>
+        <v>371.3772384404937</v>
       </c>
       <c r="AB4" t="n">
-        <v>453.5096065301813</v>
+        <v>508.1347216417192</v>
       </c>
       <c r="AC4" t="n">
-        <v>410.2272861876704</v>
+        <v>459.6390569797937</v>
       </c>
       <c r="AD4" t="n">
-        <v>331453.7230112117</v>
+        <v>371377.2384404937</v>
       </c>
       <c r="AE4" t="n">
-        <v>453509.6065301813</v>
+        <v>508134.7216417192</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.500763798510061e-06</v>
+        <v>4.361113699896372e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.461371527777779</v>
       </c>
       <c r="AH4" t="n">
-        <v>410227.2861876704</v>
+        <v>459639.0569797937</v>
       </c>
     </row>
   </sheetData>
@@ -6496,28 +6496,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>983.6648351213998</v>
+        <v>1066.278896857623</v>
       </c>
       <c r="AB2" t="n">
-        <v>1345.893623642874</v>
+        <v>1458.929827585549</v>
       </c>
       <c r="AC2" t="n">
-        <v>1217.443425175961</v>
+        <v>1319.691612461657</v>
       </c>
       <c r="AD2" t="n">
-        <v>983664.8351213998</v>
+        <v>1066278.896857623</v>
       </c>
       <c r="AE2" t="n">
-        <v>1345893.623642873</v>
+        <v>1458929.82758555</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.363782861220064e-06</v>
+        <v>2.318340477484647e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.97612847222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1217443.425175962</v>
+        <v>1319691.612461657</v>
       </c>
     </row>
     <row r="3">
@@ -6602,28 +6602,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>481.031059214278</v>
+        <v>532.7181858335248</v>
       </c>
       <c r="AB3" t="n">
-        <v>658.1679168095638</v>
+        <v>728.8885237251098</v>
       </c>
       <c r="AC3" t="n">
-        <v>595.3532945737312</v>
+        <v>659.3244260222529</v>
       </c>
       <c r="AD3" t="n">
-        <v>481031.059214278</v>
+        <v>532718.1858335248</v>
       </c>
       <c r="AE3" t="n">
-        <v>658167.9168095639</v>
+        <v>728888.5237251099</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.097106721176364e-06</v>
+        <v>3.564942437360458e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.739583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>595353.2945737313</v>
+        <v>659324.4260222529</v>
       </c>
     </row>
     <row r="4">
@@ -6708,28 +6708,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>376.4705692512345</v>
+        <v>417.9056114012035</v>
       </c>
       <c r="AB4" t="n">
-        <v>515.1036415588713</v>
+        <v>571.796894213506</v>
       </c>
       <c r="AC4" t="n">
-        <v>465.9428729609936</v>
+        <v>517.2254011517496</v>
       </c>
       <c r="AD4" t="n">
-        <v>376470.5692512345</v>
+        <v>417905.6114012035</v>
       </c>
       <c r="AE4" t="n">
-        <v>515103.6415588714</v>
+        <v>571796.894213506</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.386220029413756e-06</v>
+        <v>4.0564158999809e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.559027777777779</v>
       </c>
       <c r="AH4" t="n">
-        <v>465942.8729609936</v>
+        <v>517225.4011517495</v>
       </c>
     </row>
     <row r="5">
@@ -6814,28 +6814,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>355.4315865822244</v>
+        <v>396.6960365316014</v>
       </c>
       <c r="AB5" t="n">
-        <v>486.3171772967239</v>
+        <v>542.7770181765115</v>
       </c>
       <c r="AC5" t="n">
-        <v>439.9037484459691</v>
+        <v>490.9751413540741</v>
       </c>
       <c r="AD5" t="n">
-        <v>355431.5865822245</v>
+        <v>396696.0365316013</v>
       </c>
       <c r="AE5" t="n">
-        <v>486317.1772967239</v>
+        <v>542777.0181765115</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.447675429895206e-06</v>
+        <v>4.160886007757967e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.344184027777779</v>
       </c>
       <c r="AH5" t="n">
-        <v>439903.7484459691</v>
+        <v>490975.1413540741</v>
       </c>
     </row>
   </sheetData>
@@ -7111,28 +7111,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>453.6372641679004</v>
+        <v>511.2008014802527</v>
       </c>
       <c r="AB2" t="n">
-        <v>620.6865178981661</v>
+        <v>699.4474891729622</v>
       </c>
       <c r="AC2" t="n">
-        <v>561.4490677689636</v>
+        <v>632.6932024870105</v>
       </c>
       <c r="AD2" t="n">
-        <v>453637.2641679004</v>
+        <v>511200.8014802526</v>
       </c>
       <c r="AE2" t="n">
-        <v>620686.5178981661</v>
+        <v>699447.4891729621</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.079372363376671e-06</v>
+        <v>3.749600433724575e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.625</v>
       </c>
       <c r="AH2" t="n">
-        <v>561449.0677689635</v>
+        <v>632693.2024870105</v>
       </c>
     </row>
     <row r="3">
@@ -7217,28 +7217,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>308.9993534361303</v>
+        <v>356.9547443873286</v>
       </c>
       <c r="AB3" t="n">
-        <v>422.7865474606835</v>
+        <v>488.4012290026473</v>
       </c>
       <c r="AC3" t="n">
-        <v>382.4363927556813</v>
+        <v>441.788901182064</v>
       </c>
       <c r="AD3" t="n">
-        <v>308999.3534361303</v>
+        <v>356954.7443873286</v>
       </c>
       <c r="AE3" t="n">
-        <v>422786.5474606835</v>
+        <v>488401.2290026473</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.53784632666733e-06</v>
+        <v>4.57633748278993e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.706597222222221</v>
       </c>
       <c r="AH3" t="n">
-        <v>382436.3927556813</v>
+        <v>441788.901182064</v>
       </c>
     </row>
   </sheetData>
@@ -7514,28 +7514,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>316.8221629298976</v>
+        <v>362.9101732266866</v>
       </c>
       <c r="AB2" t="n">
-        <v>433.4900605280536</v>
+        <v>496.5497094756342</v>
       </c>
       <c r="AC2" t="n">
-        <v>392.1183775583766</v>
+        <v>449.1597021151733</v>
       </c>
       <c r="AD2" t="n">
-        <v>316822.1629298975</v>
+        <v>362910.1732266866</v>
       </c>
       <c r="AE2" t="n">
-        <v>433490.0605280536</v>
+        <v>496549.7094756343</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.467750916785787e-06</v>
+        <v>4.604034412062807e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.327256944444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>392118.3775583765</v>
+        <v>449159.7021151733</v>
       </c>
     </row>
     <row r="3">
@@ -7620,28 +7620,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>305.8088936534136</v>
+        <v>342.8158651598697</v>
       </c>
       <c r="AB3" t="n">
-        <v>418.4212196328188</v>
+        <v>469.0557906803095</v>
       </c>
       <c r="AC3" t="n">
-        <v>378.4876856889319</v>
+        <v>424.2897643417169</v>
       </c>
       <c r="AD3" t="n">
-        <v>305808.8936534136</v>
+        <v>342815.8651598697</v>
       </c>
       <c r="AE3" t="n">
-        <v>418421.2196328188</v>
+        <v>469055.7906803095</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.526931121855688e-06</v>
+        <v>4.714445758200465e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.108072916666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>378487.685688932</v>
+        <v>424289.7643417169</v>
       </c>
     </row>
   </sheetData>
@@ -12946,28 +12946,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>297.6412618424411</v>
+        <v>342.4753750749047</v>
       </c>
       <c r="AB2" t="n">
-        <v>407.2459054585617</v>
+        <v>468.5899171246978</v>
       </c>
       <c r="AC2" t="n">
-        <v>368.3789278148138</v>
+        <v>423.8683531043952</v>
       </c>
       <c r="AD2" t="n">
-        <v>297641.2618424411</v>
+        <v>342475.3750749046</v>
       </c>
       <c r="AE2" t="n">
-        <v>407245.9054585617</v>
+        <v>468589.9171246978</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.478499801445011e-06</v>
+        <v>4.766247029893217e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.605034722222221</v>
       </c>
       <c r="AH2" t="n">
-        <v>368378.9278148139</v>
+        <v>423868.3531043952</v>
       </c>
     </row>
   </sheetData>
@@ -13243,28 +13243,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>320.451413132606</v>
+        <v>370.8638136332219</v>
       </c>
       <c r="AB2" t="n">
-        <v>438.4557607666182</v>
+        <v>507.432231169706</v>
       </c>
       <c r="AC2" t="n">
-        <v>396.6101583355766</v>
+        <v>459.0036112124779</v>
       </c>
       <c r="AD2" t="n">
-        <v>320451.413132606</v>
+        <v>370863.8136332218</v>
       </c>
       <c r="AE2" t="n">
-        <v>438455.7607666182</v>
+        <v>507432.231169706</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.183870399134255e-06</v>
+        <v>4.504449603198496e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.70138888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>396610.1583355765</v>
+        <v>459003.6112124779</v>
       </c>
     </row>
   </sheetData>
@@ -13540,28 +13540,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>623.4084319468013</v>
+        <v>682.784536421905</v>
       </c>
       <c r="AB2" t="n">
-        <v>852.9749194285789</v>
+        <v>934.2159250602709</v>
       </c>
       <c r="AC2" t="n">
-        <v>771.568190276133</v>
+        <v>845.0556683528039</v>
       </c>
       <c r="AD2" t="n">
-        <v>623408.4319468014</v>
+        <v>682784.536421905</v>
       </c>
       <c r="AE2" t="n">
-        <v>852974.9194285789</v>
+        <v>934215.9250602709</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.770314383323076e-06</v>
+        <v>3.110372536533884e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.07248263888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>771568.190276133</v>
+        <v>845055.6683528039</v>
       </c>
     </row>
     <row r="3">
@@ -13646,28 +13646,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>342.6236015615643</v>
+        <v>392.0893905579296</v>
       </c>
       <c r="AB3" t="n">
-        <v>468.7927271430366</v>
+        <v>536.4740019244568</v>
       </c>
       <c r="AC3" t="n">
-        <v>424.0518072192293</v>
+        <v>485.2736761267765</v>
       </c>
       <c r="AD3" t="n">
-        <v>342623.6015615643</v>
+        <v>392089.3905579296</v>
       </c>
       <c r="AE3" t="n">
-        <v>468792.7271430366</v>
+        <v>536474.0019244568</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.449606179293626e-06</v>
+        <v>4.30386142550372e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.723958333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>424051.8072192293</v>
+        <v>485273.6761267765</v>
       </c>
     </row>
     <row r="4">
@@ -13752,28 +13752,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>326.0972194890543</v>
+        <v>365.8234642243755</v>
       </c>
       <c r="AB4" t="n">
-        <v>446.1806020989082</v>
+        <v>500.5358027440001</v>
       </c>
       <c r="AC4" t="n">
-        <v>403.5977516529957</v>
+        <v>452.7653682365233</v>
       </c>
       <c r="AD4" t="n">
-        <v>326097.2194890543</v>
+        <v>365823.4642243755</v>
       </c>
       <c r="AE4" t="n">
-        <v>446180.6020989082</v>
+        <v>500535.8027440001</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.512237316179284e-06</v>
+        <v>4.413901862352779e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.506944444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>403597.7516529957</v>
+        <v>452765.3682365233</v>
       </c>
     </row>
   </sheetData>
@@ -14049,28 +14049,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>902.4180621862803</v>
+        <v>974.1381582471687</v>
       </c>
       <c r="AB2" t="n">
-        <v>1234.728204558392</v>
+        <v>1332.858804056229</v>
       </c>
       <c r="AC2" t="n">
-        <v>1116.887477667257</v>
+        <v>1205.652630476182</v>
       </c>
       <c r="AD2" t="n">
-        <v>902418.0621862803</v>
+        <v>974138.1582471686</v>
       </c>
       <c r="AE2" t="n">
-        <v>1234728.204558392</v>
+        <v>1332858.804056229</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.43804208313145e-06</v>
+        <v>2.458891703300174e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.32074652777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1116887.477667257</v>
+        <v>1205652.630476182</v>
       </c>
     </row>
     <row r="3">
@@ -14155,28 +14155,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>455.4755460711733</v>
+        <v>506.7650799332511</v>
       </c>
       <c r="AB3" t="n">
-        <v>623.201736297498</v>
+        <v>693.378339262131</v>
       </c>
       <c r="AC3" t="n">
-        <v>563.7242372543943</v>
+        <v>627.2032837255637</v>
       </c>
       <c r="AD3" t="n">
-        <v>455475.5460711733</v>
+        <v>506765.0799332511</v>
       </c>
       <c r="AE3" t="n">
-        <v>623201.736297498</v>
+        <v>693378.339262131</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.158581448131919e-06</v>
+        <v>3.690933718818072e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.539930555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>563724.2372543943</v>
+        <v>627203.2837255637</v>
       </c>
     </row>
     <row r="4">
@@ -14261,28 +14261,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>354.9269916401865</v>
+        <v>395.8733673838282</v>
       </c>
       <c r="AB4" t="n">
-        <v>485.6267682358698</v>
+        <v>541.6514059549269</v>
       </c>
       <c r="AC4" t="n">
-        <v>439.2792310568876</v>
+        <v>489.9569559831108</v>
       </c>
       <c r="AD4" t="n">
-        <v>354926.9916401865</v>
+        <v>395873.3673838282</v>
       </c>
       <c r="AE4" t="n">
-        <v>485626.7682358698</v>
+        <v>541651.4059549269</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.446873110303843e-06</v>
+        <v>4.183880333218621e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.415798611111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>439279.2310568876</v>
+        <v>489956.9559831108</v>
       </c>
     </row>
     <row r="5">
@@ -14367,28 +14367,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>348.7577356503531</v>
+        <v>389.7041113939947</v>
       </c>
       <c r="AB5" t="n">
-        <v>477.1857200222141</v>
+        <v>533.2103577412713</v>
       </c>
       <c r="AC5" t="n">
-        <v>431.6437846376577</v>
+        <v>482.3215095638809</v>
       </c>
       <c r="AD5" t="n">
-        <v>348757.7356503531</v>
+        <v>389704.1113939947</v>
       </c>
       <c r="AE5" t="n">
-        <v>477185.7200222141</v>
+        <v>533210.3577412713</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.465567467594122e-06</v>
+        <v>4.215845600841039e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.352864583333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>431643.7846376577</v>
+        <v>482321.5095638809</v>
       </c>
     </row>
   </sheetData>
@@ -14664,28 +14664,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>363.8016771201632</v>
+        <v>420.6819250413733</v>
       </c>
       <c r="AB2" t="n">
-        <v>497.769504433065</v>
+        <v>575.5955690182998</v>
       </c>
       <c r="AC2" t="n">
-        <v>450.2630815538597</v>
+        <v>520.6615357646474</v>
       </c>
       <c r="AD2" t="n">
-        <v>363801.6771201632</v>
+        <v>420681.9250413734</v>
       </c>
       <c r="AE2" t="n">
-        <v>497769.504433065</v>
+        <v>575595.5690182998</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.885721554086556e-06</v>
+        <v>4.041969835768193e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.03211805555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>450263.0815538597</v>
+        <v>520661.5357646474</v>
       </c>
     </row>
   </sheetData>
@@ -14961,28 +14961,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>357.3717703118084</v>
+        <v>404.2629901872054</v>
       </c>
       <c r="AB2" t="n">
-        <v>488.9718222704059</v>
+        <v>553.1304579985436</v>
       </c>
       <c r="AC2" t="n">
-        <v>442.3050378291804</v>
+        <v>500.3404634106355</v>
       </c>
       <c r="AD2" t="n">
-        <v>357371.7703118084</v>
+        <v>404262.9901872054</v>
       </c>
       <c r="AE2" t="n">
-        <v>488971.8222704059</v>
+        <v>553130.4579985436</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.328523719066617e-06</v>
+        <v>4.290147858769764e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.739583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>442305.0378291804</v>
+        <v>500340.4634106355</v>
       </c>
     </row>
     <row r="3">
@@ -15067,28 +15067,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>300.0004142663875</v>
+        <v>346.8062932872128</v>
       </c>
       <c r="AB3" t="n">
-        <v>410.4738018834645</v>
+        <v>474.5156704894048</v>
       </c>
       <c r="AC3" t="n">
-        <v>371.2987583353051</v>
+        <v>429.2285608848216</v>
       </c>
       <c r="AD3" t="n">
-        <v>300000.4142663875</v>
+        <v>346806.2932872128</v>
       </c>
       <c r="AE3" t="n">
-        <v>410473.8018834645</v>
+        <v>474515.6704894048</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.538487998761627e-06</v>
+        <v>4.676992878889533e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.934461805555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>371298.7583353051</v>
+        <v>429228.5608848216</v>
       </c>
     </row>
   </sheetData>
@@ -15364,28 +15364,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>510.2796699630207</v>
+        <v>558.8485806760837</v>
       </c>
       <c r="AB2" t="n">
-        <v>698.1871563936309</v>
+        <v>764.6412827403594</v>
       </c>
       <c r="AC2" t="n">
-        <v>631.5531540992505</v>
+        <v>691.6649918963993</v>
       </c>
       <c r="AD2" t="n">
-        <v>510279.6699630207</v>
+        <v>558848.5806760837</v>
       </c>
       <c r="AE2" t="n">
-        <v>698187.1563936309</v>
+        <v>764641.2827403594</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.969383513342635e-06</v>
+        <v>3.518159924364023e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.08723958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>631553.1540992504</v>
+        <v>691664.9918963993</v>
       </c>
     </row>
     <row r="3">
@@ -15470,28 +15470,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>313.964483137482</v>
+        <v>362.4479634874223</v>
       </c>
       <c r="AB3" t="n">
-        <v>429.580056964136</v>
+        <v>495.9172937191183</v>
       </c>
       <c r="AC3" t="n">
-        <v>388.5815392468746</v>
+        <v>448.5876432308581</v>
       </c>
       <c r="AD3" t="n">
-        <v>313964.483137482</v>
+        <v>362447.9634874223</v>
       </c>
       <c r="AE3" t="n">
-        <v>429580.056964136</v>
+        <v>495917.2937191183</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.532165139651922e-06</v>
+        <v>4.523528228930136e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.624131944444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>388581.5392468746</v>
+        <v>448587.6432308581</v>
       </c>
     </row>
     <row r="4">
@@ -15576,28 +15576,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>315.5109219791053</v>
+        <v>363.9944023290456</v>
       </c>
       <c r="AB4" t="n">
-        <v>431.6959628113116</v>
+        <v>498.033199566294</v>
       </c>
       <c r="AC4" t="n">
-        <v>390.4955060096884</v>
+        <v>450.5016099936718</v>
       </c>
       <c r="AD4" t="n">
-        <v>315510.9219791053</v>
+        <v>363994.4023290456</v>
       </c>
       <c r="AE4" t="n">
-        <v>431695.9628113116</v>
+        <v>498033.199566294</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.531863272160606e-06</v>
+        <v>4.522988964686671e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.624131944444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>390495.5060096884</v>
+        <v>450501.6099936718</v>
       </c>
     </row>
   </sheetData>
